--- a/Data/jpai_rand1000.xlsx
+++ b/Data/jpai_rand1000.xlsx
@@ -1,28 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11104"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcontop\Dropbox\Scientometrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Stelios/Desktop/Projects/Stanford/Research/Ioannidis/reproducibility-indicators/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E67A4E-607C-D142-974C-36A08BB806D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14280"/>
+    <workbookView xWindow="560" yWindow="2600" windowWidth="28800" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -10123,9 +10119,6 @@
     <t>Spatiotemporal incidence rate data analysis by nonparametric regression</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>PMID</t>
   </si>
   <si>
@@ -10154,12 +10147,15 @@
   </si>
   <si>
     <t>Color</t>
+  </si>
+  <si>
+    <t>Sample_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -10514,63 +10510,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.140625" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.1640625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3364</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>3365</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3366</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3367</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3368</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3369</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3370</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3371</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>3372</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>3373</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>3374</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10605,7 +10601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10637,7 +10633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10669,7 +10665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10704,7 +10700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10733,7 +10729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10765,7 +10761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10800,7 +10796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10832,7 +10828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10867,7 +10863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10899,7 +10895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10934,7 +10930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10966,7 +10962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10998,7 +10994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11030,7 +11026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11065,7 +11061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11094,7 +11090,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11126,7 +11122,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11158,7 +11154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11190,7 +11186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11222,7 +11218,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11257,7 +11253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11289,7 +11285,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11324,7 +11320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11359,7 +11355,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11391,7 +11387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11426,7 +11422,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11458,7 +11454,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11490,7 +11486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11519,7 +11515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11551,7 +11547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11583,7 +11579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11612,7 +11608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11647,7 +11643,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11676,7 +11672,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11708,7 +11704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11743,7 +11739,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11775,7 +11771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11807,7 +11803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11836,7 +11832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11868,7 +11864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11900,7 +11896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11935,7 +11931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11967,7 +11963,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11996,7 +11992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -12031,7 +12027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -12066,7 +12062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -12101,7 +12097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -12133,7 +12129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12168,7 +12164,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12200,7 +12196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12235,7 +12231,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12270,7 +12266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12299,7 +12295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -12334,7 +12330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -12363,7 +12359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -12395,7 +12391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -12430,7 +12426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -12459,7 +12455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -12491,7 +12487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -12523,7 +12519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -12555,7 +12551,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -12587,7 +12583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -12616,7 +12612,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -12651,7 +12647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -12686,7 +12682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -12721,7 +12717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -12756,7 +12752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -12788,7 +12784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -12820,7 +12816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -12852,7 +12848,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -12884,7 +12880,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -12913,7 +12909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -12948,7 +12944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -12983,7 +12979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -13015,7 +13011,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -13047,7 +13043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -13082,7 +13078,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -13114,7 +13110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -13149,7 +13145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -13181,7 +13177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -13213,7 +13209,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -13245,7 +13241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -13277,7 +13273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -13312,7 +13308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -13347,7 +13343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -13379,7 +13375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -13414,7 +13410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -13449,7 +13445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -13481,7 +13477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -13510,7 +13506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -13539,7 +13535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -13568,7 +13564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -13600,7 +13596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -13635,7 +13631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -13664,7 +13660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -13696,7 +13692,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -13728,7 +13724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -13760,7 +13756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -13792,7 +13788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -13827,7 +13823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -13856,7 +13852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -13885,7 +13881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -13917,7 +13913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -13949,7 +13945,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -13981,7 +13977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -14010,7 +14006,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -14042,7 +14038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -14074,7 +14070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -14109,7 +14105,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -14141,7 +14137,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -14173,7 +14169,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -14208,7 +14204,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -14240,7 +14236,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -14272,7 +14268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -14307,7 +14303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -14339,7 +14335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -14371,7 +14367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -14403,7 +14399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -14435,7 +14431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -14467,7 +14463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -14499,7 +14495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -14531,7 +14527,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -14563,7 +14559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -14598,7 +14594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -14633,7 +14629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -14665,7 +14661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -14700,7 +14696,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -14732,7 +14728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -14764,7 +14760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -14799,7 +14795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -14831,7 +14827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -14863,7 +14859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -14898,7 +14894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -14930,7 +14926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -14962,7 +14958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -14994,7 +14990,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -15026,7 +15022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -15058,7 +15054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -15087,7 +15083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -15119,7 +15115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -15151,7 +15147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -15183,7 +15179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -15218,7 +15214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -15250,7 +15246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -15282,7 +15278,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -15317,7 +15313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -15352,7 +15348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -15384,7 +15380,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -15413,7 +15409,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -15445,7 +15441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -15477,7 +15473,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -15509,7 +15505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -15544,7 +15540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -15579,7 +15575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -15611,7 +15607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -15646,7 +15642,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -15681,7 +15677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -15713,7 +15709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -15745,7 +15741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -15777,7 +15773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -15806,7 +15802,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -15841,7 +15837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -15876,7 +15872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -15908,7 +15904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -15940,7 +15936,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -15975,7 +15971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -16007,7 +16003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -16042,7 +16038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -16077,7 +16073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -16106,7 +16102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -16138,7 +16134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -16170,7 +16166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -16202,7 +16198,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -16231,7 +16227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -16263,7 +16259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -16292,7 +16288,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -16327,7 +16323,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -16359,7 +16355,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -16394,7 +16390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -16426,7 +16422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -16458,7 +16454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -16490,7 +16486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -16522,7 +16518,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -16554,7 +16550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -16586,7 +16582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -16618,7 +16614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -16650,7 +16646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -16682,7 +16678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -16714,7 +16710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -16746,7 +16742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -16778,7 +16774,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -16810,7 +16806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -16842,7 +16838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -16874,7 +16870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -16906,7 +16902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -16935,7 +16931,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -16967,7 +16963,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -17002,7 +16998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -17031,7 +17027,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -17066,7 +17062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -17101,7 +17097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -17133,7 +17129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -17165,7 +17161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -17197,7 +17193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -17232,7 +17228,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -17267,7 +17263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -17296,7 +17292,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -17328,7 +17324,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -17360,7 +17356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -17392,7 +17388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -17424,7 +17420,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -17453,7 +17449,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -17485,7 +17481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -17520,7 +17516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -17555,7 +17551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -17590,7 +17586,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
@@ -17622,7 +17618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -17654,7 +17650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -17689,7 +17685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -17724,7 +17720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -17756,7 +17752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -17788,7 +17784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -17817,7 +17813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -17852,7 +17848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
@@ -17884,7 +17880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
@@ -17916,7 +17912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
@@ -17951,7 +17947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
@@ -17980,7 +17976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
@@ -18009,7 +18005,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
@@ -18038,7 +18034,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
@@ -18070,7 +18066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -18099,7 +18095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
@@ -18134,7 +18130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
@@ -18169,7 +18165,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
@@ -18198,7 +18194,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
@@ -18233,7 +18229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -18268,7 +18264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
@@ -18303,7 +18299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
@@ -18332,7 +18328,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
@@ -18364,7 +18360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -18399,7 +18395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
@@ -18431,7 +18427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
@@ -18466,7 +18462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
@@ -18498,7 +18494,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
@@ -18530,7 +18526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
@@ -18565,7 +18561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
@@ -18597,7 +18593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
@@ -18629,7 +18625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
@@ -18664,7 +18660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
@@ -18693,7 +18689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
@@ -18722,7 +18718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
@@ -18754,7 +18750,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
@@ -18786,7 +18782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
@@ -18818,7 +18814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
@@ -18850,7 +18846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
@@ -18879,7 +18875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
@@ -18908,7 +18904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
@@ -18943,7 +18939,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
@@ -18975,7 +18971,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>260</v>
       </c>
@@ -19007,7 +19003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>261</v>
       </c>
@@ -19039,7 +19035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>262</v>
       </c>
@@ -19071,7 +19067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>263</v>
       </c>
@@ -19103,7 +19099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>264</v>
       </c>
@@ -19138,7 +19134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>265</v>
       </c>
@@ -19170,7 +19166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
@@ -19202,7 +19198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>267</v>
       </c>
@@ -19234,7 +19230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>268</v>
       </c>
@@ -19266,7 +19262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>269</v>
       </c>
@@ -19298,7 +19294,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>270</v>
       </c>
@@ -19330,7 +19326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>271</v>
       </c>
@@ -19359,7 +19355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>272</v>
       </c>
@@ -19394,7 +19390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>273</v>
       </c>
@@ -19426,7 +19422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>274</v>
       </c>
@@ -19458,7 +19454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>275</v>
       </c>
@@ -19487,7 +19483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>276</v>
       </c>
@@ -19519,7 +19515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>277</v>
       </c>
@@ -19548,7 +19544,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>278</v>
       </c>
@@ -19583,7 +19579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>279</v>
       </c>
@@ -19612,7 +19608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>280</v>
       </c>
@@ -19644,7 +19640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>281</v>
       </c>
@@ -19679,7 +19675,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>282</v>
       </c>
@@ -19711,7 +19707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>283</v>
       </c>
@@ -19743,7 +19739,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>284</v>
       </c>
@@ -19775,7 +19771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>285</v>
       </c>
@@ -19807,7 +19803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>286</v>
       </c>
@@ -19839,7 +19835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>287</v>
       </c>
@@ -19871,7 +19867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>288</v>
       </c>
@@ -19900,7 +19896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>289</v>
       </c>
@@ -19932,7 +19928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>290</v>
       </c>
@@ -19967,7 +19963,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>291</v>
       </c>
@@ -19996,7 +19992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>292</v>
       </c>
@@ -20031,7 +20027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>293</v>
       </c>
@@ -20066,7 +20062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>294</v>
       </c>
@@ -20098,7 +20094,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>295</v>
       </c>
@@ -20130,7 +20126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>296</v>
       </c>
@@ -20162,7 +20158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>297</v>
       </c>
@@ -20194,7 +20190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>298</v>
       </c>
@@ -20229,7 +20225,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>299</v>
       </c>
@@ -20264,7 +20260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>300</v>
       </c>
@@ -20293,7 +20289,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>301</v>
       </c>
@@ -20322,7 +20318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>302</v>
       </c>
@@ -20354,7 +20350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>303</v>
       </c>
@@ -20389,7 +20385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>304</v>
       </c>
@@ -20424,7 +20420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>305</v>
       </c>
@@ -20456,7 +20452,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>306</v>
       </c>
@@ -20491,7 +20487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>307</v>
       </c>
@@ -20526,7 +20522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>308</v>
       </c>
@@ -20558,7 +20554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>309</v>
       </c>
@@ -20587,7 +20583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>310</v>
       </c>
@@ -20619,7 +20615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>311</v>
       </c>
@@ -20654,7 +20650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>312</v>
       </c>
@@ -20686,7 +20682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>313</v>
       </c>
@@ -20715,7 +20711,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>314</v>
       </c>
@@ -20747,7 +20743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>315</v>
       </c>
@@ -20779,7 +20775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>316</v>
       </c>
@@ -20808,7 +20804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>317</v>
       </c>
@@ -20840,7 +20836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>318</v>
       </c>
@@ -20872,7 +20868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>319</v>
       </c>
@@ -20901,7 +20897,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>320</v>
       </c>
@@ -20936,7 +20932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>321</v>
       </c>
@@ -20968,7 +20964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>322</v>
       </c>
@@ -21000,7 +20996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>323</v>
       </c>
@@ -21032,7 +21028,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>324</v>
       </c>
@@ -21064,7 +21060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>325</v>
       </c>
@@ -21096,7 +21092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>326</v>
       </c>
@@ -21125,7 +21121,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>327</v>
       </c>
@@ -21160,7 +21156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>328</v>
       </c>
@@ -21192,7 +21188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>329</v>
       </c>
@@ -21224,7 +21220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>330</v>
       </c>
@@ -21256,7 +21252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>331</v>
       </c>
@@ -21291,7 +21287,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>332</v>
       </c>
@@ -21326,7 +21322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>333</v>
       </c>
@@ -21358,7 +21354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>334</v>
       </c>
@@ -21393,7 +21389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>335</v>
       </c>
@@ -21428,7 +21424,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>336</v>
       </c>
@@ -21460,7 +21456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>337</v>
       </c>
@@ -21495,7 +21491,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>338</v>
       </c>
@@ -21527,7 +21523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>339</v>
       </c>
@@ -21559,7 +21555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>340</v>
       </c>
@@ -21591,7 +21587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>341</v>
       </c>
@@ -21626,7 +21622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>342</v>
       </c>
@@ -21661,7 +21657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>343</v>
       </c>
@@ -21693,7 +21689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>344</v>
       </c>
@@ -21725,7 +21721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>345</v>
       </c>
@@ -21754,7 +21750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>346</v>
       </c>
@@ -21789,7 +21785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>347</v>
       </c>
@@ -21818,7 +21814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>348</v>
       </c>
@@ -21850,7 +21846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>349</v>
       </c>
@@ -21885,7 +21881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>350</v>
       </c>
@@ -21917,7 +21913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>351</v>
       </c>
@@ -21952,7 +21948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>352</v>
       </c>
@@ -21984,7 +21980,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>353</v>
       </c>
@@ -22013,7 +22009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>354</v>
       </c>
@@ -22048,7 +22044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>355</v>
       </c>
@@ -22080,7 +22076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>356</v>
       </c>
@@ -22112,7 +22108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>357</v>
       </c>
@@ -22144,7 +22140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>358</v>
       </c>
@@ -22176,7 +22172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>359</v>
       </c>
@@ -22208,7 +22204,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>360</v>
       </c>
@@ -22240,7 +22236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>361</v>
       </c>
@@ -22272,7 +22268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>362</v>
       </c>
@@ -22307,7 +22303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>363</v>
       </c>
@@ -22339,7 +22335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>364</v>
       </c>
@@ -22371,7 +22367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>365</v>
       </c>
@@ -22406,7 +22402,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>366</v>
       </c>
@@ -22438,7 +22434,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>367</v>
       </c>
@@ -22467,7 +22463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>368</v>
       </c>
@@ -22499,7 +22495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>369</v>
       </c>
@@ -22531,7 +22527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>370</v>
       </c>
@@ -22566,7 +22562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>371</v>
       </c>
@@ -22601,7 +22597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>372</v>
       </c>
@@ -22633,7 +22629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>373</v>
       </c>
@@ -22665,7 +22661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>374</v>
       </c>
@@ -22700,7 +22696,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>375</v>
       </c>
@@ -22735,7 +22731,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>376</v>
       </c>
@@ -22767,7 +22763,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>377</v>
       </c>
@@ -22802,7 +22798,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>378</v>
       </c>
@@ -22831,7 +22827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>379</v>
       </c>
@@ -22860,7 +22856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>380</v>
       </c>
@@ -22892,7 +22888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>381</v>
       </c>
@@ -22924,7 +22920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>382</v>
       </c>
@@ -22956,7 +22952,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>383</v>
       </c>
@@ -22988,7 +22984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>384</v>
       </c>
@@ -23020,7 +23016,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>385</v>
       </c>
@@ -23052,7 +23048,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>386</v>
       </c>
@@ -23084,7 +23080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>387</v>
       </c>
@@ -23116,7 +23112,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>388</v>
       </c>
@@ -23151,7 +23147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>389</v>
       </c>
@@ -23183,7 +23179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>390</v>
       </c>
@@ -23215,7 +23211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>391</v>
       </c>
@@ -23244,7 +23240,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>392</v>
       </c>
@@ -23276,7 +23272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>393</v>
       </c>
@@ -23308,7 +23304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>394</v>
       </c>
@@ -23340,7 +23336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>395</v>
       </c>
@@ -23372,7 +23368,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>396</v>
       </c>
@@ -23407,7 +23403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>397</v>
       </c>
@@ -23442,7 +23438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>398</v>
       </c>
@@ -23474,7 +23470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>399</v>
       </c>
@@ -23509,7 +23505,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>400</v>
       </c>
@@ -23541,7 +23537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>401</v>
       </c>
@@ -23573,7 +23569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>402</v>
       </c>
@@ -23605,7 +23601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>403</v>
       </c>
@@ -23637,7 +23633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>404</v>
       </c>
@@ -23669,7 +23665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>405</v>
       </c>
@@ -23698,7 +23694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>406</v>
       </c>
@@ -23733,7 +23729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>407</v>
       </c>
@@ -23765,7 +23761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>408</v>
       </c>
@@ -23794,7 +23790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>409</v>
       </c>
@@ -23826,7 +23822,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>410</v>
       </c>
@@ -23855,7 +23851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>411</v>
       </c>
@@ -23887,7 +23883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>412</v>
       </c>
@@ -23919,7 +23915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>413</v>
       </c>
@@ -23948,7 +23944,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>414</v>
       </c>
@@ -23977,7 +23973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>415</v>
       </c>
@@ -24009,7 +24005,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>416</v>
       </c>
@@ -24041,7 +24037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>417</v>
       </c>
@@ -24070,7 +24066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>418</v>
       </c>
@@ -24099,7 +24095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>419</v>
       </c>
@@ -24131,7 +24127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>420</v>
       </c>
@@ -24163,7 +24159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>421</v>
       </c>
@@ -24195,7 +24191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>422</v>
       </c>
@@ -24227,7 +24223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>423</v>
       </c>
@@ -24259,7 +24255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>424</v>
       </c>
@@ -24288,7 +24284,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>425</v>
       </c>
@@ -24323,7 +24319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>426</v>
       </c>
@@ -24358,7 +24354,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>427</v>
       </c>
@@ -24393,7 +24389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>428</v>
       </c>
@@ -24425,7 +24421,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>429</v>
       </c>
@@ -24454,7 +24450,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>430</v>
       </c>
@@ -24486,7 +24482,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>431</v>
       </c>
@@ -24521,7 +24517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>432</v>
       </c>
@@ -24556,7 +24552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>433</v>
       </c>
@@ -24588,7 +24584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>434</v>
       </c>
@@ -24620,7 +24616,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>435</v>
       </c>
@@ -24655,7 +24651,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>436</v>
       </c>
@@ -24684,7 +24680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>437</v>
       </c>
@@ -24716,7 +24712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>438</v>
       </c>
@@ -24748,7 +24744,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>439</v>
       </c>
@@ -24783,7 +24779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>440</v>
       </c>
@@ -24812,7 +24808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>441</v>
       </c>
@@ -24847,7 +24843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>442</v>
       </c>
@@ -24879,7 +24875,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>443</v>
       </c>
@@ -24911,7 +24907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>444</v>
       </c>
@@ -24946,7 +24942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>445</v>
       </c>
@@ -24978,7 +24974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>446</v>
       </c>
@@ -25013,7 +25009,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>447</v>
       </c>
@@ -25045,7 +25041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>448</v>
       </c>
@@ -25077,7 +25073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>449</v>
       </c>
@@ -25112,7 +25108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>450</v>
       </c>
@@ -25141,7 +25137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>451</v>
       </c>
@@ -25173,7 +25169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>452</v>
       </c>
@@ -25205,7 +25201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>453</v>
       </c>
@@ -25240,7 +25236,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>454</v>
       </c>
@@ -25275,7 +25271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>455</v>
       </c>
@@ -25307,7 +25303,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>456</v>
       </c>
@@ -25342,7 +25338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>457</v>
       </c>
@@ -25377,7 +25373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>458</v>
       </c>
@@ -25409,7 +25405,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>459</v>
       </c>
@@ -25441,7 +25437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>460</v>
       </c>
@@ -25473,7 +25469,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>461</v>
       </c>
@@ -25505,7 +25501,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>462</v>
       </c>
@@ -25537,7 +25533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>463</v>
       </c>
@@ -25572,7 +25568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>464</v>
       </c>
@@ -25604,7 +25600,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>465</v>
       </c>
@@ -25636,7 +25632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>466</v>
       </c>
@@ -25668,7 +25664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>467</v>
       </c>
@@ -25703,7 +25699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>468</v>
       </c>
@@ -25735,7 +25731,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>469</v>
       </c>
@@ -25770,7 +25766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>470</v>
       </c>
@@ -25805,7 +25801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>471</v>
       </c>
@@ -25840,7 +25836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>472</v>
       </c>
@@ -25872,7 +25868,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>473</v>
       </c>
@@ -25904,7 +25900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>474</v>
       </c>
@@ -25939,7 +25935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>475</v>
       </c>
@@ -25971,7 +25967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>476</v>
       </c>
@@ -26000,7 +25996,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>477</v>
       </c>
@@ -26032,7 +26028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>478</v>
       </c>
@@ -26064,7 +26060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>479</v>
       </c>
@@ -26099,7 +26095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>480</v>
       </c>
@@ -26131,7 +26127,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>481</v>
       </c>
@@ -26163,7 +26159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>482</v>
       </c>
@@ -26192,7 +26188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>483</v>
       </c>
@@ -26227,7 +26223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>484</v>
       </c>
@@ -26259,7 +26255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>485</v>
       </c>
@@ -26291,7 +26287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>486</v>
       </c>
@@ -26323,7 +26319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>487</v>
       </c>
@@ -26355,7 +26351,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>488</v>
       </c>
@@ -26387,7 +26383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>489</v>
       </c>
@@ -26416,7 +26412,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>490</v>
       </c>
@@ -26448,7 +26444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>491</v>
       </c>
@@ -26477,7 +26473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>492</v>
       </c>
@@ -26509,7 +26505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>493</v>
       </c>
@@ -26541,7 +26537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>494</v>
       </c>
@@ -26576,7 +26572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>495</v>
       </c>
@@ -26605,7 +26601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>496</v>
       </c>
@@ -26637,7 +26633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>497</v>
       </c>
@@ -26669,7 +26665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>498</v>
       </c>
@@ -26701,7 +26697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>499</v>
       </c>
@@ -26730,7 +26726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>500</v>
       </c>
@@ -26759,7 +26755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>501</v>
       </c>
@@ -26791,7 +26787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>502</v>
       </c>
@@ -26826,7 +26822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>503</v>
       </c>
@@ -26861,7 +26857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>504</v>
       </c>
@@ -26893,7 +26889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>505</v>
       </c>
@@ -26925,7 +26921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>506</v>
       </c>
@@ -26957,7 +26953,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>507</v>
       </c>
@@ -26986,7 +26982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>508</v>
       </c>
@@ -27021,7 +27017,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>509</v>
       </c>
@@ -27056,7 +27052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>510</v>
       </c>
@@ -27088,7 +27084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>511</v>
       </c>
@@ -27120,7 +27116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>512</v>
       </c>
@@ -27152,7 +27148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>513</v>
       </c>
@@ -27187,7 +27183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>514</v>
       </c>
@@ -27219,7 +27215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>515</v>
       </c>
@@ -27254,7 +27250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>516</v>
       </c>
@@ -27289,7 +27285,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>517</v>
       </c>
@@ -27321,7 +27317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>518</v>
       </c>
@@ -27353,7 +27349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>519</v>
       </c>
@@ -27385,7 +27381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>520</v>
       </c>
@@ -27417,7 +27413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>521</v>
       </c>
@@ -27449,7 +27445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>522</v>
       </c>
@@ -27481,7 +27477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>523</v>
       </c>
@@ -27516,7 +27512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>524</v>
       </c>
@@ -27548,7 +27544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>525</v>
       </c>
@@ -27583,7 +27579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>526</v>
       </c>
@@ -27615,7 +27611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>527</v>
       </c>
@@ -27647,7 +27643,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>528</v>
       </c>
@@ -27679,7 +27675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>529</v>
       </c>
@@ -27714,7 +27710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>530</v>
       </c>
@@ -27746,7 +27742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>531</v>
       </c>
@@ -27778,7 +27774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>532</v>
       </c>
@@ -27807,7 +27803,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>533</v>
       </c>
@@ -27839,7 +27835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>534</v>
       </c>
@@ -27874,7 +27870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>535</v>
       </c>
@@ -27906,7 +27902,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>536</v>
       </c>
@@ -27938,7 +27934,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>537</v>
       </c>
@@ -27967,7 +27963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>538</v>
       </c>
@@ -27999,7 +27995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>539</v>
       </c>
@@ -28031,7 +28027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>540</v>
       </c>
@@ -28063,7 +28059,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>541</v>
       </c>
@@ -28098,7 +28094,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>542</v>
       </c>
@@ -28133,7 +28129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>543</v>
       </c>
@@ -28165,7 +28161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>544</v>
       </c>
@@ -28200,7 +28196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>545</v>
       </c>
@@ -28232,7 +28228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>546</v>
       </c>
@@ -28264,7 +28260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>547</v>
       </c>
@@ -28296,7 +28292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>548</v>
       </c>
@@ -28325,7 +28321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>549</v>
       </c>
@@ -28357,7 +28353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>550</v>
       </c>
@@ -28392,7 +28388,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>551</v>
       </c>
@@ -28424,7 +28420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>552</v>
       </c>
@@ -28456,7 +28452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>553</v>
       </c>
@@ -28488,7 +28484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>554</v>
       </c>
@@ -28523,7 +28519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>555</v>
       </c>
@@ -28555,7 +28551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>556</v>
       </c>
@@ -28587,7 +28583,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>557</v>
       </c>
@@ -28619,7 +28615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>558</v>
       </c>
@@ -28651,7 +28647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>559</v>
       </c>
@@ -28686,7 +28682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>560</v>
       </c>
@@ -28718,7 +28714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>561</v>
       </c>
@@ -28753,7 +28749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>562</v>
       </c>
@@ -28788,7 +28784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>563</v>
       </c>
@@ -28823,7 +28819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>564</v>
       </c>
@@ -28852,7 +28848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>565</v>
       </c>
@@ -28884,7 +28880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>566</v>
       </c>
@@ -28916,7 +28912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>567</v>
       </c>
@@ -28948,7 +28944,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>568</v>
       </c>
@@ -28980,7 +28976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>569</v>
       </c>
@@ -29012,7 +29008,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>570</v>
       </c>
@@ -29044,7 +29040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>571</v>
       </c>
@@ -29076,7 +29072,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>572</v>
       </c>
@@ -29111,7 +29107,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>573</v>
       </c>
@@ -29143,7 +29139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>574</v>
       </c>
@@ -29169,7 +29165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>575</v>
       </c>
@@ -29201,7 +29197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>576</v>
       </c>
@@ -29236,7 +29232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>577</v>
       </c>
@@ -29271,7 +29267,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>578</v>
       </c>
@@ -29306,7 +29302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>579</v>
       </c>
@@ -29338,7 +29334,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>580</v>
       </c>
@@ -29373,7 +29369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>581</v>
       </c>
@@ -29408,7 +29404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>582</v>
       </c>
@@ -29440,7 +29436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>583</v>
       </c>
@@ -29472,7 +29468,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>584</v>
       </c>
@@ -29504,7 +29500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>585</v>
       </c>
@@ -29536,7 +29532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>586</v>
       </c>
@@ -29565,7 +29561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>587</v>
       </c>
@@ -29597,7 +29593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>588</v>
       </c>
@@ -29632,7 +29628,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>589</v>
       </c>
@@ -29664,7 +29660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>590</v>
       </c>
@@ -29693,7 +29689,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>591</v>
       </c>
@@ -29725,7 +29721,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>592</v>
       </c>
@@ -29760,7 +29756,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>593</v>
       </c>
@@ -29792,7 +29788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>594</v>
       </c>
@@ -29824,7 +29820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>595</v>
       </c>
@@ -29856,7 +29852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>596</v>
       </c>
@@ -29885,7 +29881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>597</v>
       </c>
@@ -29917,7 +29913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>598</v>
       </c>
@@ -29946,7 +29942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>599</v>
       </c>
@@ -29981,7 +29977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>600</v>
       </c>
@@ -30013,7 +30009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>601</v>
       </c>
@@ -30048,7 +30044,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>602</v>
       </c>
@@ -30077,7 +30073,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>603</v>
       </c>
@@ -30109,7 +30105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>604</v>
       </c>
@@ -30144,7 +30140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>605</v>
       </c>
@@ -30176,7 +30172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>606</v>
       </c>
@@ -30205,7 +30201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>607</v>
       </c>
@@ -30237,7 +30233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>608</v>
       </c>
@@ -30269,7 +30265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>609</v>
       </c>
@@ -30298,7 +30294,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>610</v>
       </c>
@@ -30330,7 +30326,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>611</v>
       </c>
@@ -30362,7 +30358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>612</v>
       </c>
@@ -30397,7 +30393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>613</v>
       </c>
@@ -30426,7 +30422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>614</v>
       </c>
@@ -30458,7 +30454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>615</v>
       </c>
@@ -30493,7 +30489,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>616</v>
       </c>
@@ -30525,7 +30521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>617</v>
       </c>
@@ -30560,7 +30556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>618</v>
       </c>
@@ -30595,7 +30591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>619</v>
       </c>
@@ -30627,7 +30623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>620</v>
       </c>
@@ -30659,7 +30655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>621</v>
       </c>
@@ -30691,7 +30687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>622</v>
       </c>
@@ -30726,7 +30722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>623</v>
       </c>
@@ -30761,7 +30757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>624</v>
       </c>
@@ -30793,7 +30789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>625</v>
       </c>
@@ -30825,7 +30821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>626</v>
       </c>
@@ -30857,7 +30853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>627</v>
       </c>
@@ -30889,7 +30885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>628</v>
       </c>
@@ -30924,7 +30920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>629</v>
       </c>
@@ -30959,7 +30955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>630</v>
       </c>
@@ -30991,7 +30987,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>631</v>
       </c>
@@ -31026,7 +31022,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>632</v>
       </c>
@@ -31058,7 +31054,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>633</v>
       </c>
@@ -31090,7 +31086,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>634</v>
       </c>
@@ -31122,7 +31118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>635</v>
       </c>
@@ -31157,7 +31153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>636</v>
       </c>
@@ -31189,7 +31185,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>637</v>
       </c>
@@ -31218,7 +31214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>638</v>
       </c>
@@ -31250,7 +31246,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>639</v>
       </c>
@@ -31282,7 +31278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>640</v>
       </c>
@@ -31314,7 +31310,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>641</v>
       </c>
@@ -31343,7 +31339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>642</v>
       </c>
@@ -31378,7 +31374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>643</v>
       </c>
@@ -31407,7 +31403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>644</v>
       </c>
@@ -31436,7 +31432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>645</v>
       </c>
@@ -31465,7 +31461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>646</v>
       </c>
@@ -31497,7 +31493,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>647</v>
       </c>
@@ -31529,7 +31525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>648</v>
       </c>
@@ -31561,7 +31557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>649</v>
       </c>
@@ -31593,7 +31589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>650</v>
       </c>
@@ -31625,7 +31621,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>651</v>
       </c>
@@ -31657,7 +31653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>652</v>
       </c>
@@ -31686,7 +31682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>653</v>
       </c>
@@ -31718,7 +31714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>654</v>
       </c>
@@ -31750,7 +31746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>655</v>
       </c>
@@ -31782,7 +31778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>656</v>
       </c>
@@ -31814,7 +31810,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>657</v>
       </c>
@@ -31849,7 +31845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>658</v>
       </c>
@@ -31881,7 +31877,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>659</v>
       </c>
@@ -31913,7 +31909,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>660</v>
       </c>
@@ -31945,7 +31941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>661</v>
       </c>
@@ -31980,7 +31976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>662</v>
       </c>
@@ -32012,7 +32008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>663</v>
       </c>
@@ -32044,7 +32040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>664</v>
       </c>
@@ -32076,7 +32072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>665</v>
       </c>
@@ -32108,7 +32104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>666</v>
       </c>
@@ -32140,7 +32136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>667</v>
       </c>
@@ -32172,7 +32168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>668</v>
       </c>
@@ -32204,7 +32200,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>669</v>
       </c>
@@ -32236,7 +32232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>670</v>
       </c>
@@ -32271,7 +32267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>671</v>
       </c>
@@ -32303,7 +32299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>672</v>
       </c>
@@ -32335,7 +32331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>673</v>
       </c>
@@ -32367,7 +32363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>674</v>
       </c>
@@ -32399,7 +32395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>675</v>
       </c>
@@ -32431,7 +32427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>676</v>
       </c>
@@ -32463,7 +32459,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>677</v>
       </c>
@@ -32498,7 +32494,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>678</v>
       </c>
@@ -32527,7 +32523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>679</v>
       </c>
@@ -32559,7 +32555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>680</v>
       </c>
@@ -32588,7 +32584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>681</v>
       </c>
@@ -32620,7 +32616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>682</v>
       </c>
@@ -32652,7 +32648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>683</v>
       </c>
@@ -32684,7 +32680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>684</v>
       </c>
@@ -32713,7 +32709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>685</v>
       </c>
@@ -32745,7 +32741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>686</v>
       </c>
@@ -32780,7 +32776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>687</v>
       </c>
@@ -32812,7 +32808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>688</v>
       </c>
@@ -32841,7 +32837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>689</v>
       </c>
@@ -32873,7 +32869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>690</v>
       </c>
@@ -32905,7 +32901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>691</v>
       </c>
@@ -32937,7 +32933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>692</v>
       </c>
@@ -32969,7 +32965,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>693</v>
       </c>
@@ -33001,7 +32997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>694</v>
       </c>
@@ -33033,7 +33029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>695</v>
       </c>
@@ -33065,7 +33061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>696</v>
       </c>
@@ -33100,7 +33096,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>697</v>
       </c>
@@ -33132,7 +33128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>698</v>
       </c>
@@ -33167,7 +33163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>699</v>
       </c>
@@ -33199,7 +33195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>700</v>
       </c>
@@ -33231,7 +33227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>701</v>
       </c>
@@ -33263,7 +33259,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>702</v>
       </c>
@@ -33298,7 +33294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>703</v>
       </c>
@@ -33330,7 +33326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>704</v>
       </c>
@@ -33365,7 +33361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>705</v>
       </c>
@@ -33400,7 +33396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>706</v>
       </c>
@@ -33435,7 +33431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>707</v>
       </c>
@@ -33467,7 +33463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>708</v>
       </c>
@@ -33499,7 +33495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>709</v>
       </c>
@@ -33531,7 +33527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>710</v>
       </c>
@@ -33560,7 +33556,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>711</v>
       </c>
@@ -33592,7 +33588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>712</v>
       </c>
@@ -33624,7 +33620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>713</v>
       </c>
@@ -33659,7 +33655,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>714</v>
       </c>
@@ -33691,7 +33687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>715</v>
       </c>
@@ -33723,7 +33719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>716</v>
       </c>
@@ -33755,7 +33751,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>717</v>
       </c>
@@ -33787,7 +33783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>718</v>
       </c>
@@ -33816,7 +33812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>719</v>
       </c>
@@ -33851,7 +33847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>720</v>
       </c>
@@ -33880,7 +33876,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>721</v>
       </c>
@@ -33912,7 +33908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>722</v>
       </c>
@@ -33944,7 +33940,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>723</v>
       </c>
@@ -33979,7 +33975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>724</v>
       </c>
@@ -34011,7 +34007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>725</v>
       </c>
@@ -34040,7 +34036,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>726</v>
       </c>
@@ -34072,7 +34068,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>727</v>
       </c>
@@ -34104,7 +34100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>728</v>
       </c>
@@ -34136,7 +34132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>729</v>
       </c>
@@ -34165,7 +34161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>730</v>
       </c>
@@ -34200,7 +34196,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>731</v>
       </c>
@@ -34232,7 +34228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>732</v>
       </c>
@@ -34267,7 +34263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>733</v>
       </c>
@@ -34299,7 +34295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>734</v>
       </c>
@@ -34334,7 +34330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>735</v>
       </c>
@@ -34366,7 +34362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>736</v>
       </c>
@@ -34398,7 +34394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>737</v>
       </c>
@@ -34433,7 +34429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>738</v>
       </c>
@@ -34468,7 +34464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>739</v>
       </c>
@@ -34500,7 +34496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>740</v>
       </c>
@@ -34535,7 +34531,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>741</v>
       </c>
@@ -34570,7 +34566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>742</v>
       </c>
@@ -34602,7 +34598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>743</v>
       </c>
@@ -34634,7 +34630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>744</v>
       </c>
@@ -34666,7 +34662,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>745</v>
       </c>
@@ -34698,7 +34694,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>746</v>
       </c>
@@ -34730,7 +34726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>747</v>
       </c>
@@ -34762,7 +34758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>748</v>
       </c>
@@ -34794,7 +34790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>749</v>
       </c>
@@ -34823,7 +34819,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>750</v>
       </c>
@@ -34858,7 +34854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>751</v>
       </c>
@@ -34893,7 +34889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>752</v>
       </c>
@@ -34928,7 +34924,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>753</v>
       </c>
@@ -34963,7 +34959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>754</v>
       </c>
@@ -34995,7 +34991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>755</v>
       </c>
@@ -35027,7 +35023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>756</v>
       </c>
@@ -35059,7 +35055,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>757</v>
       </c>
@@ -35091,7 +35087,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>758</v>
       </c>
@@ -35126,7 +35122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>759</v>
       </c>
@@ -35155,7 +35151,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>760</v>
       </c>
@@ -35187,7 +35183,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>761</v>
       </c>
@@ -35222,7 +35218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>762</v>
       </c>
@@ -35257,7 +35253,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>763</v>
       </c>
@@ -35289,7 +35285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>764</v>
       </c>
@@ -35321,7 +35317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>765</v>
       </c>
@@ -35353,7 +35349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>766</v>
       </c>
@@ -35385,7 +35381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>767</v>
       </c>
@@ -35417,7 +35413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>768</v>
       </c>
@@ -35446,7 +35442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>769</v>
       </c>
@@ -35475,7 +35471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>770</v>
       </c>
@@ -35507,7 +35503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>771</v>
       </c>
@@ -35539,7 +35535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>772</v>
       </c>
@@ -35571,7 +35567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>773</v>
       </c>
@@ -35603,7 +35599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>774</v>
       </c>
@@ -35638,7 +35634,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>775</v>
       </c>
@@ -35667,7 +35663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>776</v>
       </c>
@@ -35696,7 +35692,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>777</v>
       </c>
@@ -35725,7 +35721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>778</v>
       </c>
@@ -35760,7 +35756,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>779</v>
       </c>
@@ -35795,7 +35791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>780</v>
       </c>
@@ -35827,7 +35823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>781</v>
       </c>
@@ -35862,7 +35858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>782</v>
       </c>
@@ -35897,7 +35893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>783</v>
       </c>
@@ -35929,7 +35925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>784</v>
       </c>
@@ -35961,7 +35957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>785</v>
       </c>
@@ -35990,7 +35986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>786</v>
       </c>
@@ -36022,7 +36018,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>787</v>
       </c>
@@ -36057,7 +36053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>788</v>
       </c>
@@ -36092,7 +36088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>789</v>
       </c>
@@ -36124,7 +36120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>790</v>
       </c>
@@ -36156,7 +36152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>791</v>
       </c>
@@ -36188,7 +36184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>792</v>
       </c>
@@ -36220,7 +36216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>793</v>
       </c>
@@ -36252,7 +36248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>794</v>
       </c>
@@ -36284,7 +36280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>795</v>
       </c>
@@ -36316,7 +36312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>796</v>
       </c>
@@ -36351,7 +36347,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>797</v>
       </c>
@@ -36380,7 +36376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>798</v>
       </c>
@@ -36412,7 +36408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>799</v>
       </c>
@@ -36444,7 +36440,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>800</v>
       </c>
@@ -36476,7 +36472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>801</v>
       </c>
@@ -36511,7 +36507,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>802</v>
       </c>
@@ -36543,7 +36539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>803</v>
       </c>
@@ -36575,7 +36571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>804</v>
       </c>
@@ -36607,7 +36603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>805</v>
       </c>
@@ -36639,7 +36635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>806</v>
       </c>
@@ -36671,7 +36667,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>807</v>
       </c>
@@ -36703,7 +36699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>808</v>
       </c>
@@ -36738,7 +36734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>809</v>
       </c>
@@ -36767,7 +36763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>810</v>
       </c>
@@ -36802,7 +36798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>811</v>
       </c>
@@ -36834,7 +36830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>812</v>
       </c>
@@ -36863,7 +36859,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>813</v>
       </c>
@@ -36898,7 +36894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>814</v>
       </c>
@@ -36930,7 +36926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>815</v>
       </c>
@@ -36962,7 +36958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>816</v>
       </c>
@@ -36994,7 +36990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>817</v>
       </c>
@@ -37026,7 +37022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>818</v>
       </c>
@@ -37058,7 +37054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>819</v>
       </c>
@@ -37087,7 +37083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>820</v>
       </c>
@@ -37119,7 +37115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>821</v>
       </c>
@@ -37151,7 +37147,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>822</v>
       </c>
@@ -37183,7 +37179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>823</v>
       </c>
@@ -37215,7 +37211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>824</v>
       </c>
@@ -37247,7 +37243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>825</v>
       </c>
@@ -37279,7 +37275,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>826</v>
       </c>
@@ -37314,7 +37310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>827</v>
       </c>
@@ -37343,7 +37339,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>828</v>
       </c>
@@ -37375,7 +37371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>829</v>
       </c>
@@ -37407,7 +37403,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>830</v>
       </c>
@@ -37442,7 +37438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>831</v>
       </c>
@@ -37474,7 +37470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>832</v>
       </c>
@@ -37503,7 +37499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>833</v>
       </c>
@@ -37535,7 +37531,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>834</v>
       </c>
@@ -37564,7 +37560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>835</v>
       </c>
@@ -37593,7 +37589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>836</v>
       </c>
@@ -37625,7 +37621,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>837</v>
       </c>
@@ -37654,7 +37650,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>838</v>
       </c>
@@ -37689,7 +37685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>839</v>
       </c>
@@ -37721,7 +37717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>840</v>
       </c>
@@ -37753,7 +37749,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>841</v>
       </c>
@@ -37785,7 +37781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>842</v>
       </c>
@@ -37817,7 +37813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>843</v>
       </c>
@@ -37852,7 +37848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>844</v>
       </c>
@@ -37881,7 +37877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>845</v>
       </c>
@@ -37916,7 +37912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>846</v>
       </c>
@@ -37948,7 +37944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>847</v>
       </c>
@@ -37980,7 +37976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>848</v>
       </c>
@@ -38012,7 +38008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>849</v>
       </c>
@@ -38041,7 +38037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="851" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>850</v>
       </c>
@@ -38073,7 +38069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>851</v>
       </c>
@@ -38105,7 +38101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>852</v>
       </c>
@@ -38137,7 +38133,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="854" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>853</v>
       </c>
@@ -38169,7 +38165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>854</v>
       </c>
@@ -38201,7 +38197,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>855</v>
       </c>
@@ -38230,7 +38226,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="857" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>856</v>
       </c>
@@ -38265,7 +38261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>857</v>
       </c>
@@ -38297,7 +38293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>858</v>
       </c>
@@ -38332,7 +38328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="860" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>859</v>
       </c>
@@ -38364,7 +38360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>860</v>
       </c>
@@ -38396,7 +38392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="862" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>861</v>
       </c>
@@ -38428,7 +38424,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="863" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>862</v>
       </c>
@@ -38463,7 +38459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="864" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>863</v>
       </c>
@@ -38495,7 +38491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="865" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>864</v>
       </c>
@@ -38530,7 +38526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="866" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>865</v>
       </c>
@@ -38562,7 +38558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="867" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>866</v>
       </c>
@@ -38591,7 +38587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="868" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>867</v>
       </c>
@@ -38623,7 +38619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="869" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>868</v>
       </c>
@@ -38655,7 +38651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="870" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>869</v>
       </c>
@@ -38687,7 +38683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="871" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>870</v>
       </c>
@@ -38719,7 +38715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="872" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>871</v>
       </c>
@@ -38751,7 +38747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="873" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>872</v>
       </c>
@@ -38786,7 +38782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="874" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>873</v>
       </c>
@@ -38815,7 +38811,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="875" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>874</v>
       </c>
@@ -38847,7 +38843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="876" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>875</v>
       </c>
@@ -38879,7 +38875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="877" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>876</v>
       </c>
@@ -38914,7 +38910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="878" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>877</v>
       </c>
@@ -38946,7 +38942,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="879" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>878</v>
       </c>
@@ -38978,7 +38974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="880" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>879</v>
       </c>
@@ -39013,7 +39009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="881" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>880</v>
       </c>
@@ -39048,7 +39044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="882" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>881</v>
       </c>
@@ -39083,7 +39079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>882</v>
       </c>
@@ -39118,7 +39114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="884" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>883</v>
       </c>
@@ -39153,7 +39149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="885" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>884</v>
       </c>
@@ -39188,7 +39184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>885</v>
       </c>
@@ -39220,7 +39216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="887" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>886</v>
       </c>
@@ -39249,7 +39245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="888" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>887</v>
       </c>
@@ -39281,7 +39277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="889" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>888</v>
       </c>
@@ -39313,7 +39309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="890" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>889</v>
       </c>
@@ -39342,7 +39338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="891" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>890</v>
       </c>
@@ -39374,7 +39370,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="892" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>891</v>
       </c>
@@ -39406,7 +39402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="893" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>892</v>
       </c>
@@ -39441,7 +39437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="894" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>893</v>
       </c>
@@ -39476,7 +39472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="895" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>894</v>
       </c>
@@ -39508,7 +39504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="896" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>895</v>
       </c>
@@ -39540,7 +39536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="897" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>896</v>
       </c>
@@ -39575,7 +39571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="898" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>897</v>
       </c>
@@ -39607,7 +39603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="899" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>898</v>
       </c>
@@ -39642,7 +39638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="900" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>899</v>
       </c>
@@ -39671,7 +39667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="901" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>900</v>
       </c>
@@ -39703,7 +39699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="902" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>901</v>
       </c>
@@ -39735,7 +39731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="903" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>902</v>
       </c>
@@ -39767,7 +39763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="904" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>903</v>
       </c>
@@ -39799,7 +39795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="905" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>904</v>
       </c>
@@ -39831,7 +39827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="906" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>905</v>
       </c>
@@ -39863,7 +39859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="907" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>906</v>
       </c>
@@ -39892,7 +39888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="908" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>907</v>
       </c>
@@ -39927,7 +39923,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="909" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>908</v>
       </c>
@@ -39962,7 +39958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="910" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>909</v>
       </c>
@@ -39997,7 +39993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="911" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>910</v>
       </c>
@@ -40026,7 +40022,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="912" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>911</v>
       </c>
@@ -40061,7 +40057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="913" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>912</v>
       </c>
@@ -40093,7 +40089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="914" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>913</v>
       </c>
@@ -40122,7 +40118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="915" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>914</v>
       </c>
@@ -40154,7 +40150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="916" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>915</v>
       </c>
@@ -40186,7 +40182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="917" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>916</v>
       </c>
@@ -40221,7 +40217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="918" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>917</v>
       </c>
@@ -40253,7 +40249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="919" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>918</v>
       </c>
@@ -40285,7 +40281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="920" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>919</v>
       </c>
@@ -40320,7 +40316,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="921" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>920</v>
       </c>
@@ -40352,7 +40348,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="922" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>921</v>
       </c>
@@ -40387,7 +40383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="923" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>922</v>
       </c>
@@ -40419,7 +40415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="924" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>923</v>
       </c>
@@ -40454,7 +40450,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="925" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>924</v>
       </c>
@@ -40486,7 +40482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="926" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>925</v>
       </c>
@@ -40518,7 +40514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="927" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>926</v>
       </c>
@@ -40547,7 +40543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="928" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>927</v>
       </c>
@@ -40579,7 +40575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="929" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>928</v>
       </c>
@@ -40611,7 +40607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="930" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>929</v>
       </c>
@@ -40643,7 +40639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="931" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>930</v>
       </c>
@@ -40672,7 +40668,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="932" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>931</v>
       </c>
@@ -40704,7 +40700,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="933" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>932</v>
       </c>
@@ -40733,7 +40729,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="934" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>933</v>
       </c>
@@ -40765,7 +40761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="935" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>934</v>
       </c>
@@ -40797,7 +40793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="936" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>935</v>
       </c>
@@ -40829,7 +40825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="937" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>936</v>
       </c>
@@ -40858,7 +40854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="938" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>937</v>
       </c>
@@ -40893,7 +40889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="939" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>938</v>
       </c>
@@ -40925,7 +40921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="940" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>939</v>
       </c>
@@ -40957,7 +40953,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="941" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>940</v>
       </c>
@@ -40992,7 +40988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="942" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>941</v>
       </c>
@@ -41024,7 +41020,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="943" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>942</v>
       </c>
@@ -41056,7 +41052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="944" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>943</v>
       </c>
@@ -41088,7 +41084,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="945" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>944</v>
       </c>
@@ -41120,7 +41116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="946" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>945</v>
       </c>
@@ -41152,7 +41148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="947" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>946</v>
       </c>
@@ -41184,7 +41180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="948" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>947</v>
       </c>
@@ -41216,7 +41212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="949" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>948</v>
       </c>
@@ -41251,7 +41247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="950" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>949</v>
       </c>
@@ -41286,7 +41282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="951" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>950</v>
       </c>
@@ -41318,7 +41314,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="952" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>951</v>
       </c>
@@ -41350,7 +41346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="953" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>952</v>
       </c>
@@ -41385,7 +41381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="954" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>953</v>
       </c>
@@ -41414,7 +41410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="955" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>954</v>
       </c>
@@ -41446,7 +41442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="956" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>955</v>
       </c>
@@ -41478,7 +41474,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="957" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>956</v>
       </c>
@@ -41513,7 +41509,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="958" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>957</v>
       </c>
@@ -41545,7 +41541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="959" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>958</v>
       </c>
@@ -41580,7 +41576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="960" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>959</v>
       </c>
@@ -41609,7 +41605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="961" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>960</v>
       </c>
@@ -41638,7 +41634,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="962" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>961</v>
       </c>
@@ -41670,7 +41666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="963" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>962</v>
       </c>
@@ -41702,7 +41698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="964" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>963</v>
       </c>
@@ -41737,7 +41733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="965" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>964</v>
       </c>
@@ -41769,7 +41765,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="966" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>965</v>
       </c>
@@ -41801,7 +41797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="967" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>966</v>
       </c>
@@ -41833,7 +41829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="968" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>967</v>
       </c>
@@ -41868,7 +41864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="969" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>968</v>
       </c>
@@ -41900,7 +41896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="970" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>969</v>
       </c>
@@ -41935,7 +41931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="971" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>970</v>
       </c>
@@ -41967,7 +41963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="972" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>971</v>
       </c>
@@ -41999,7 +41995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="973" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>972</v>
       </c>
@@ -42031,7 +42027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="974" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>973</v>
       </c>
@@ -42066,7 +42062,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="975" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>974</v>
       </c>
@@ -42101,7 +42097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="976" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>975</v>
       </c>
@@ -42133,7 +42129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="977" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>976</v>
       </c>
@@ -42168,7 +42164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="978" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>977</v>
       </c>
@@ -42200,7 +42196,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="979" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>978</v>
       </c>
@@ -42232,7 +42228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="980" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>979</v>
       </c>
@@ -42264,7 +42260,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="981" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>980</v>
       </c>
@@ -42293,7 +42289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="982" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>981</v>
       </c>
@@ -42325,7 +42321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="983" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>982</v>
       </c>
@@ -42360,7 +42356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="984" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>983</v>
       </c>
@@ -42392,7 +42388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="985" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>984</v>
       </c>
@@ -42427,7 +42423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="986" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>985</v>
       </c>
@@ -42459,7 +42455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="987" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>986</v>
       </c>
@@ -42488,7 +42484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="988" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>987</v>
       </c>
@@ -42517,7 +42513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="989" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>988</v>
       </c>
@@ -42549,7 +42545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="990" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>989</v>
       </c>
@@ -42578,7 +42574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="991" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>990</v>
       </c>
@@ -42610,7 +42606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="992" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>991</v>
       </c>
@@ -42642,7 +42638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="993" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>992</v>
       </c>
@@ -42674,7 +42670,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="994" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>993</v>
       </c>
@@ -42703,7 +42699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="995" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>994</v>
       </c>
@@ -42735,7 +42731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="996" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>995</v>
       </c>
@@ -42770,7 +42766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="997" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>996</v>
       </c>
@@ -42799,7 +42795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="998" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>997</v>
       </c>
@@ -42828,7 +42824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="999" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A999">
         <v>998</v>
       </c>
@@ -42860,7 +42856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1000" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>999</v>
       </c>
@@ -42892,7 +42888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1001" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>1000</v>
       </c>
